--- a/data/meta_data/plate6_setup.xlsx
+++ b/data/meta_data/plate6_setup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2E990FA9-78C0-F74E-91C5-2EB19F13ED90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D6E3816-C6C4-4946-B8F1-C4C00E897E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27280" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G31" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
